--- a/biology/Botanique/Pyrola_rotundifolia/Pyrola_rotundifolia.xlsx
+++ b/biology/Botanique/Pyrola_rotundifolia/Pyrola_rotundifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pyrole (ou Pirole) à feuilles rondes (Pyrola rotundifolia) est une espèce de plante à fleurs de la famille des Éricacées (ou des Pyrolacées selon la classification classique).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est trouvée en Europe et en Asie.
 </t>
@@ -573,9 +589,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante [1]. Toutefois localement l'espèce peut se raréfier : elle est considérée en danger-critique (CR) en région Centre et Pays de la Loire; en danger (EN) en Limousin et Auvergne, comme vulnérable (VU) en Alsace, Île de France, Basse-Normandie, Bretagne, Franche-Comté, Bourgogne ; proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, en Haute-Normandie et Picardie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France, elle est classée comme non préoccupante . Toutefois localement l'espèce peut se raréfier : elle est considérée en danger-critique (CR) en région Centre et Pays de la Loire; en danger (EN) en Limousin et Auvergne, comme vulnérable (VU) en Alsace, Île de France, Basse-Normandie, Bretagne, Franche-Comté, Bourgogne ; proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, en Haute-Normandie et Picardie.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Pyrole à feuilles rondes développe des mycorhizes[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Pyrole à feuilles rondes développe des mycorhizes.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Propriétés et utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pyrole ou pirole à feuilles rondes est utilisée en médecine traditionnelle chinoise dans le traitement de la névralgie, de l’hémorragie gastrique et pulmonaire et de l’arthrite. Elle montre également une activité antibiotique in-vitro contre des bacilles pathogènes pour l'Homme[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pyrole ou pirole à feuilles rondes est utilisée en médecine traditionnelle chinoise dans le traitement de la névralgie, de l’hémorragie gastrique et pulmonaire et de l’arthrite. Elle montre également une activité antibiotique in-vitro contre des bacilles pathogènes pour l'Homme.
 </t>
         </is>
       </c>
